--- a/tasks/task26/26_1.xlsx
+++ b/tasks/task26/26_1.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="16050" windowHeight="14310"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="16050" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="26_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -841,9 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="D562" sqref="D562"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
